--- a/results/Before 2nd sem without tuition_cv_3.xlsx
+++ b/results/Before 2nd sem without tuition_cv_3.xlsx
@@ -67,25 +67,25 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>{'max_depth': 5, 'min_samples_split': 2}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'sqrt', 'n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.05, 'num_leaves': 31}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'n_estimators': 50}</t>
+    <t>{'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'min_samples_split': 2, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.2, 'n_estimators': 50, 'num_leaves': 31}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100}</t>
   </si>
   <si>
     <t>DecisionTreeClassifier(max_depth=5)</t>
   </si>
   <si>
-    <t>RandomForestClassifier()</t>
-  </si>
-  <si>
-    <t>LGBMClassifier(learning_rate=0.05)</t>
+    <t>RandomForestClassifier(max_depth=25, n_estimators=150)</t>
+  </si>
+  <si>
+    <t>LGBMClassifier(learning_rate=0.2, n_estimators=50)</t>
   </si>
   <si>
     <t>XGBClassifier(base_score=None, booster=None, callbacks=None,
@@ -93,11 +93,11 @@
               colsample_bytree=None, device=None, early_stopping_rounds=None,
               enable_categorical=True, eval_metric=None, feature_types=None,
               gamma=None, grow_policy=None, importance_type=None,
-              interaction_constraints=None, learning_rate=None, max_bin=None,
+              interaction_constraints=None, learning_rate=0.1, max_bin=None,
               max_cat_threshold=None, max_cat_to_onehot=None,
               max_delta_step=None, max_depth=3, max_leaves=None,
               min_child_weight=None, missing=nan, monotone_constraints=None,
-              multi_strategy=None, n_estimators=50, n_jobs=None,
+              multi_strategy=None, n_estimators=100, n_jobs=None,
               num_parallel_tree=None, random_state=None, ...)</t>
   </si>
   <si>
@@ -105,16 +105,16 @@
  [ 34 415]]</t>
   </si>
   <si>
-    <t>[[213  64]
- [ 26 423]]</t>
+    <t>[[211  66]
+ [ 23 426]]</t>
   </si>
   <si>
     <t>[[227  50]
- [ 28 421]]</t>
-  </si>
-  <si>
-    <t>[[217  60]
- [ 34 415]]</t>
+ [ 33 416]]</t>
+  </si>
+  <si>
+    <t>[[219  58]
+ [ 23 426]]</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.8467626496030336</v>
+        <v>0.8474499348264011</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -557,7 +557,7 @@
         <v>0.8441678751674609</v>
       </c>
       <c r="M2">
-        <v>1.179312467575073</v>
+        <v>17.09272265434265</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -568,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.8674214954378481</v>
+        <v>0.8694869060315205</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -577,28 +577,28 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J3">
-        <v>0.8772175600858676</v>
+        <v>0.8795341555873707</v>
       </c>
       <c r="K3">
-        <v>0.8760330578512396</v>
+        <v>0.8774104683195593</v>
       </c>
       <c r="L3">
-        <v>0.8739848065958004</v>
+        <v>0.8750535215306668</v>
       </c>
       <c r="M3">
-        <v>26.66541695594788</v>
+        <v>694.8173654079437</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -609,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>0.8732717146581347</v>
+        <v>0.8746474700793933</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -618,28 +618,28 @@
         <v>27</v>
       </c>
       <c r="F4">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>227</v>
       </c>
       <c r="J4">
-        <v>0.8924514741061625</v>
+        <v>0.8852153471447268</v>
       </c>
       <c r="K4">
-        <v>0.8925619834710744</v>
+        <v>0.8856749311294766</v>
       </c>
       <c r="L4">
-        <v>0.8916251057035329</v>
+        <v>0.8849273526042128</v>
       </c>
       <c r="M4">
-        <v>8.651665210723877</v>
+        <v>237.3406167030334</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -650,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.8701765612039342</v>
+        <v>0.8725844294347672</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -659,28 +659,28 @@
         <v>28</v>
       </c>
       <c r="F5">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I5">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J5">
-        <v>0.8701960029968571</v>
+        <v>0.8896250256130045</v>
       </c>
       <c r="K5">
-        <v>0.8705234159779615</v>
+        <v>0.8884297520661157</v>
       </c>
       <c r="L5">
-        <v>0.8691571857894171</v>
+        <v>0.8867604390243378</v>
       </c>
       <c r="M5">
-        <v>9.465440988540649</v>
+        <v>290.6994128227234</v>
       </c>
     </row>
   </sheetData>
